--- a/nar2024web.xlsx
+++ b/nar2024web.xlsx
@@ -1481,7 +1481,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1492,7 +1492,7 @@
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:4">
+    <row r="1" ht="27" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/nar2024web.xlsx
+++ b/nar2024web.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="401">
   <si>
     <t>category</t>
   </si>
@@ -519,6 +519,2209 @@
   </si>
   <si>
     <t>https://kowalski-labapps.dellmed.utexas.edu/TTSBBC/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3D-GNOME 3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analyse 3D genome organization</t>
+    </r>
+  </si>
+  <si>
+    <t>https://3dgnome.mini.pw.edu.pl/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伪Charges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calculation of partial atomic charges in protein structures</t>
+    </r>
+  </si>
+  <si>
+    <t>https://alphacharges.ncbr.muni.cz/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abalign</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiple sequence alignment for B-cell receptor immune repertoires</t>
+    </r>
+  </si>
+  <si>
+    <t>http://cao.labshare.cn/abalign/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACFIS 2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fragment-based drug design</t>
+    </r>
+  </si>
+  <si>
+    <t>http://chemyang.ccnu.edu.cn/ccb/server/ACFIS2/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AlloReverse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiscale analysis of multiple allosteric regulations</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.allostery.net/AlloReverse/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AnnotSV 2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Annotation and ranking of human structural variants</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.lbgi.fr/AnnotSV/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>antiSMASH 7.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Secondary/specialized metabolite genome mining</t>
+    </r>
+  </si>
+  <si>
+    <t>https://antismash.secondarymetabolites.org/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARMADiLLO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analysis of antibody mutation probabilities</t>
+    </r>
+  </si>
+  <si>
+    <t>https://armadillo.dhvi.duke.edu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Breeze 2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Visual analysis and comparison of drug-response data</t>
+    </r>
+  </si>
+  <si>
+    <t>https://breeze.fimm.fi/v2/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intrinsic disorder and binding regions in proteins</t>
+    </r>
+  </si>
+  <si>
+    <t>https://caid.idpcentral.org/submit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAVE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analysis and visualization of metabolic pathways</t>
+    </r>
+  </si>
+  <si>
+    <t>https://cave.biodesign.ac.cn/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChemMaps.com v2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exploring the environmental chemical universe</t>
+    </r>
+  </si>
+  <si>
+    <t>https://sandbox.ntp.niehs.nih.gov/chemmaps/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChroKit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exploration and multidimensional analysis of heterogeneous genomic data (stand-alone)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/ocroci/ChroKit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRISPRimmunity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acr prediction for CRISPR/Cas</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.microbiome-bigdata.com/CRISPRimmunity</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CUPP 2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search for similarities between carbohydrate-processing enzymes.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://cupp.info/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dbCAN3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Carbohydrate-active enzyme and substrate annotation</t>
+    </r>
+  </si>
+  <si>
+    <t>https://bcb.unl.edu/dbCAN2/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDMut</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predicting variant effects on protein stability</t>
+    </r>
+  </si>
+  <si>
+    <t>https://biosig.lab.uq.edu.au/ddmut</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DeepAlloDriver</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prediction of cancer driver mutations</t>
+    </r>
+  </si>
+  <si>
+    <t>https://mdl.shsmu.edu.cn/DeepAlloDriver</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DeepNeo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prediction of immunogenic neoantigens</t>
+    </r>
+  </si>
+  <si>
+    <t>https://deepneo.net</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEPICTER2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prediction of intrinsic disorder</t>
+    </r>
+  </si>
+  <si>
+    <t>http://biomine.cs.vcu.edu/servers/DEPICTER2/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIANA-microT 2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>miRNA target prediction</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.microrna.gr/microt_webserver/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIANA-miRPath v4.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Online miRNA analysis</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.microrna.gr/miRPathv4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e-RNA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prediction and visualization of RNA secondary structures</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.e-rna.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enrichr-KG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gene set enrichment analysis</t>
+    </r>
+  </si>
+  <si>
+    <t>https://maayanlab.cloud/enrichr-kg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FLUXestimator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Study the metabolic fluxome</t>
+    </r>
+  </si>
+  <si>
+    <t>http://scflux.org/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FunARTS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Identification of fungal bioactive compounds</t>
+    </r>
+  </si>
+  <si>
+    <t>https://funarts.ziemertlab.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FuzPred</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prediction of context-dependent protein-protein interactions</t>
+    </r>
+  </si>
+  <si>
+    <t>https://fuzpred.bio.unipd.it</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g:Profiler 2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Functional enrichment analysis</t>
+    </r>
+  </si>
+  <si>
+    <t>https://biit.cs.ut.ee/gprofiler</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GeneRanger and TargetRanger</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Finding differentially expressed genes and proteins</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://generanger.maayanlab.cloud/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://targetranger.maayanlab.cloud/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Genome Context Viewer version 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Visual comparison of different genomes</t>
+    </r>
+  </si>
+  <si>
+    <t>https://gcv.legumeinfo.org/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GenomeFLTR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Removing contaminations from NGS reads</t>
+    </r>
+  </si>
+  <si>
+    <t>https://genomefltr.tau.ac.il/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GePI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Text-mining for molecular interactions</t>
+    </r>
+  </si>
+  <si>
+    <t>https://gepi.coling.uni-jena.de/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GPS 6.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prediction of kinase-specific phosphorylation sites in proteins</t>
+    </r>
+  </si>
+  <si>
+    <t>https://gps.biocuckoo.cn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GS-SMD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Molecular dynamics simulations for 纬-secretase</t>
+    </r>
+  </si>
+  <si>
+    <t>https://gs-smd.biomodellab.eu/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Haplogrep 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human mitochondrial haplogroups</t>
+    </r>
+  </si>
+  <si>
+    <t>https://haplogrep.i-med.ac.at</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human AGEs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human archeogenomics</t>
+    </r>
+  </si>
+  <si>
+    <t>https://archeogenomics.eu/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IntFOLD7, MultiFOLD and ModFOLDdock</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prediction of protein structures, functions and interactions</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.reading.ac.uk/bioinf/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IRSOM2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prediction of bifunctional RNAs</t>
+    </r>
+  </si>
+  <si>
+    <t>https://evryrna.ibisc.univ-evry.fr/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KVFinder-web</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detection and characterization of biomolecular cavities</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kvfinder-web.cnpem.br</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The LightDock Server</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A macromolecular docking framework</t>
+    </r>
+  </si>
+  <si>
+    <t>https://server.lightdock.org/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MBROLE3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Functional enrichment analysis of chemical compounds</t>
+    </r>
+  </si>
+  <si>
+    <t>http://csbg.cnb.csic.es/mbrole3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MicrobiomeAnalyst 2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analysis of microbiome data</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.microbiomeanalyst.ca/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>miEAA 2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>miRNA enrichment analysis and annotation</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ccb-compute2.cs.uni-saarland.de/mieaa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mol*VS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Visualization of volumetric and segmentation imaging data</t>
+    </r>
+  </si>
+  <si>
+    <t>https://molstarvolseg.ncbr.muni.cz/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MpoxRadar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monkeypox genomic surveillance dashboard</t>
+    </r>
+  </si>
+  <si>
+    <t>https://mpoxradar.net</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PIP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Peptide spectrum predictor for proteomics</t>
+    </r>
+  </si>
+  <si>
+    <t>https://iomics.ugent.be/ms2pip/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MULocDeep</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Protein localization prediction at sub-organellar level</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.mu-loc.org/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MyGeneset.info</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sharing and user-created collections of genes</t>
+    </r>
+  </si>
+  <si>
+    <t>https://mygeneset.info/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NBBC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explore non-B DNA motifs in cancer</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kowalski-labapps.dellmed.utexas.edu/NBBC/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nCoVDock2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prediction of binding modes between COVID-19 targets and potential ligands</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ncovdock2.schanglab.org.cn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NormSeq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Normalization and differential expression analysis of RNA-seq data</t>
+    </r>
+  </si>
+  <si>
+    <t>https://arn.ugr.es/normSeq</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OnTarget</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design of mini promoters</t>
+    </r>
+  </si>
+  <si>
+    <t>http://ontarget.cmmt.ubc.ca/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OpenXGR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enrichment and subnetwork analyses for genes, variants, or genomic regions</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.openxgr.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OrthoVenn3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exploration of orthologous data across genomes</t>
+    </r>
+  </si>
+  <si>
+    <t>https://orthovenn3.bioinfotoolkits.net</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PAE Viewer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estimate the reliability of structure predictions generated by Alphafold-Multimer</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.subtiwiki.uni-goettingen.de/v4/paeViewerDemo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PanDrugs2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prioritizing cancer therapies using individual multi-omics data.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pandrugs.org/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PANGEA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gene set enrichment analysis for model organisms.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.flyrnai.org/tools/pangea/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PASSer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prediction of protein allosteric sites</t>
+    </r>
+  </si>
+  <si>
+    <t>https://passer.smu.edu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PEP-FOLD4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Structure prediction of short peptides considering pH and salt concentration</t>
+    </r>
+  </si>
+  <si>
+    <t>http://bioserv.rpbs.univ-paris-diderot.fr/services/PEP-FOLD4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pest Alert Tool</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search for marine non-indigenous species in New Zealand using NGS data</t>
+    </r>
+  </si>
+  <si>
+    <t>https://pest-alert-tool-prod.azurewebsites.net/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PHASTEST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Identification, annotation and visualization of prophage sequences within bacterial genomes and plasmids</t>
+    </r>
+  </si>
+  <si>
+    <t>https://phastest.ca</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PhD-SNPg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Study the functional impact of short DNA variants</t>
+    </r>
+  </si>
+  <si>
+    <t>http://snps.biofold.org/phd-snpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlasMapper 3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generating and editing plasmid maps</t>
+    </r>
+  </si>
+  <si>
+    <t>https://plasmapper.ca</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PrismNet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predicting protein RNA interaction</t>
+    </r>
+  </si>
+  <si>
+    <t>http://prismnetweb.zhanglab.net/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProAct</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quantification of differential biological process activity</t>
+    </r>
+  </si>
+  <si>
+    <t>https://netbio.bgu.ac.il/ProAct/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proksee</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Characterization and visualization of bacterial genomes</t>
+    </r>
+  </si>
+  <si>
+    <t>https://proksee.ca</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ResFinderFG v2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search for antibiotic resistance genes</t>
+    </r>
+  </si>
+  <si>
+    <t>https://cge.food.dtu.dk/services/ResFinderFG/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNAcanvas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interactive drawing of nucleic acid structures</t>
+    </r>
+  </si>
+  <si>
+    <t>https://rnacanvas.app</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNAincoder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prediction of RNA-associated interactions</t>
+    </r>
+  </si>
+  <si>
+    <t>https://idrblab.org/rnaincoder/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SEanalysis 2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analysis of super enhancers</t>
+    </r>
+  </si>
+  <si>
+    <t>http://licpathway.net/SEanalysis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SEPPA-mAb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spatial epitope prediction of protein antigens for monoclonal antibodies</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.badd-cao.net/seppa-mab/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sfkit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Secure and federated genomic data analysis</t>
+    </r>
+  </si>
+  <si>
+    <t>https://sfkit.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SH2db</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Information system for Src Homology 2 (SH2) domains</t>
+    </r>
+  </si>
+  <si>
+    <t>http://sh2db.ttk.hu/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SMDB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interactive exploration of spatial transcriptomics data</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.biosino.org/smdb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STellaris</t>
+    </r>
+  </si>
+  <si>
+    <t>https://spatial.rhesusbase.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCRmodel2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>High-resolution modelling of T cell receptor recognition</t>
+    </r>
+  </si>
+  <si>
+    <t>https://tcrmodel.ibbr.umd.edu.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TransCRISPR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design optimal single guide RNAs for CRISPR/Cas9</t>
+    </r>
+  </si>
+  <si>
+    <t>https://transcrispr.igcz.poznan.pl/transcrispr/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tvBOT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Visualization, annotation, and modification of phylogenetic trees.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.chiplot.online/tvbot.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vissE.cloud</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.visse.cloud/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WebQUAST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evaluation and comparison of genome assemblies</t>
+    </r>
+  </si>
+  <si>
+    <t>http://cab.cc.spbu.ru/quast/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WebTetrado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explore quadruplexes in nucleic acid 3D structures</t>
+    </r>
+  </si>
+  <si>
+    <t>https://webtetrado.cs.put.poznan.pl/</t>
   </si>
 </sst>
 </file>
@@ -531,7 +2734,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +2892,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1155,13 +3366,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1478,10 +3689,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1502,40 +3713,40 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1543,10 +3754,10 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1554,142 +3765,142 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="243" spans="1:3">
+    <row r="7" ht="27" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="229.5" spans="1:3">
+    <row r="8" ht="27" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="81" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="202.5" spans="1:3">
+    <row r="10" ht="27" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="229.5" spans="1:3">
+    <row r="11" ht="27" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="202.5" spans="1:3">
+    <row r="12" ht="27" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="202.5" spans="1:3">
+    <row r="13" ht="27" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="229.5" spans="1:3">
+    <row r="14" ht="27" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="283.5" spans="1:3">
+    <row r="15" ht="27" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="243" spans="1:3">
+    <row r="16" ht="27" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="108" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="243" spans="1:3">
+    <row r="18" ht="27" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1697,627 +3908,1518 @@
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" ht="256.5" spans="1:3">
-      <c r="A25" s="5" t="s">
+    <row r="25" ht="27" spans="1:3">
+      <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" ht="189" spans="1:3">
-      <c r="A26" s="5" t="s">
+    <row r="26" ht="27" spans="1:3">
+      <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" ht="270" spans="1:3">
-      <c r="A27" s="5" t="s">
+    <row r="27" ht="40.5" spans="1:3">
+      <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" ht="175.5" spans="1:3">
-      <c r="A28" s="5" t="s">
+    <row r="28" ht="27" spans="1:3">
+      <c r="A28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" ht="121.5" spans="1:3">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" ht="256.5" spans="1:3">
-      <c r="A30" s="5" t="s">
+    <row r="30" ht="27" spans="1:3">
+      <c r="A30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" ht="202.5" spans="1:3">
-      <c r="A31" s="5" t="s">
+    <row r="31" ht="27" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" ht="135" spans="1:3">
-      <c r="A32" s="5" t="s">
+    <row r="32" ht="27" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" ht="270" spans="1:3">
-      <c r="A33" s="5" t="s">
+    <row r="33" ht="40.5" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="5" t="s">
+    <row r="34" ht="27" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" ht="189" spans="1:3">
-      <c r="A35" s="5" t="s">
+    <row r="35" ht="27" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" ht="256.5" spans="1:3">
-      <c r="A36" s="5" t="s">
+    <row r="36" ht="40.5" spans="1:3">
+      <c r="A36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" ht="283.5" spans="1:3">
-      <c r="A37" s="5" t="s">
+    <row r="37" ht="40.5" spans="1:3">
+      <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" ht="229.5" spans="1:3">
-      <c r="A38" s="5" t="s">
+    <row r="38" ht="27" spans="1:3">
+      <c r="A38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" ht="121.5" spans="1:3">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" ht="108" spans="1:3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" ht="283.5" spans="1:3">
-      <c r="A41" s="5" t="s">
+    <row r="41" ht="40.5" spans="1:3">
+      <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" ht="175.5" spans="1:3">
-      <c r="A42" s="5" t="s">
+    <row r="42" ht="27" spans="1:3">
+      <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" ht="283.5" spans="1:3">
-      <c r="A43" s="5" t="s">
+    <row r="43" ht="40.5" spans="1:3">
+      <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" ht="189" spans="1:3">
-      <c r="A44" s="5" t="s">
+    <row r="44" ht="27" spans="1:3">
+      <c r="A44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" ht="162" spans="1:3">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" ht="243" spans="1:3">
-      <c r="A46" s="5" t="s">
+    <row r="46" ht="27" spans="1:3">
+      <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="48" ht="27" spans="1:3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" ht="175.5" spans="1:3">
-      <c r="A50" s="5" t="s">
+    <row r="50" ht="27" spans="1:3">
+      <c r="A50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" ht="270" spans="1:3">
-      <c r="A51" s="5" t="s">
+    <row r="51" ht="40.5" spans="1:3">
+      <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" ht="337.5" spans="1:3">
-      <c r="A52" s="5" t="s">
+    <row r="52" ht="40.5" spans="1:3">
+      <c r="A52" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="55" ht="27" spans="1:3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" ht="229.5" spans="1:3">
-      <c r="A56" s="5" t="s">
+    <row r="56" ht="27" spans="1:3">
+      <c r="A56" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" ht="202.5" spans="1:3">
-      <c r="A57" s="5" t="s">
+    <row r="57" ht="27" spans="1:3">
+      <c r="A57" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="58" ht="27" spans="1:3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="59" ht="40.5" spans="1:3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="60" ht="27" spans="1:3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="61" ht="256.5" spans="1:3">
-      <c r="A61" s="5" t="s">
+    <row r="61" ht="27" spans="1:3">
+      <c r="A61" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" ht="270" spans="1:3">
-      <c r="A62" s="5" t="s">
+    <row r="62" ht="40.5" spans="1:3">
+      <c r="A62" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="63" ht="162" spans="1:3">
-      <c r="A63" s="5" t="s">
+    <row r="63" ht="27" spans="1:3">
+      <c r="A63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" ht="202.5" spans="1:3">
-      <c r="A64" s="5" t="s">
+    <row r="64" ht="27" spans="1:3">
+      <c r="A64" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="65" ht="229.5" spans="1:3">
-      <c r="A65" s="5" t="s">
+    <row r="65" ht="27" spans="1:3">
+      <c r="A65" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" ht="216" spans="1:3">
-      <c r="A66" s="5" t="s">
+    <row r="66" ht="27" spans="1:3">
+      <c r="A66" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="67" ht="202.5" spans="1:3">
-      <c r="A67" s="5" t="s">
+    <row r="67" ht="27" spans="1:3">
+      <c r="A67" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="68" ht="148.5" spans="1:3">
-      <c r="A68" s="5" t="s">
+    <row r="68" ht="27" spans="1:3">
+      <c r="A68" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="69" ht="202.5" spans="1:3">
-      <c r="A69" s="5" t="s">
+    <row r="69" ht="27" spans="1:3">
+      <c r="A69" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" ht="27" spans="1:3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="72" ht="27" spans="1:3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="73" ht="229.5" spans="1:3">
-      <c r="A73" s="5" t="s">
+    <row r="73" ht="27" spans="1:3">
+      <c r="A73" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="74" ht="189" spans="1:3">
-      <c r="A74" s="5" t="s">
+    <row r="74" ht="27" spans="1:3">
+      <c r="A74" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="75" ht="121.5" spans="1:3">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="76" ht="40.5" spans="2:4">
+      <c r="B76" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" ht="40.5" spans="2:4">
+      <c r="B77" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" ht="40.5" spans="2:4">
+      <c r="B78" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" ht="54" spans="2:4">
+      <c r="B79" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" ht="40.5" spans="2:4">
+      <c r="B80" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" ht="27" spans="2:4">
+      <c r="B81" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" ht="40.5" spans="2:4">
+      <c r="B82" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" ht="40.5" spans="2:4">
+      <c r="B83" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" ht="27" spans="2:4">
+      <c r="B84" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" ht="40.5" spans="2:4">
+      <c r="B85" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" ht="27" spans="2:4">
+      <c r="B86" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" ht="40.5" spans="2:4">
+      <c r="B87" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" ht="40.5" spans="2:4">
+      <c r="B88" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" ht="54" spans="2:4">
+      <c r="B89" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" ht="27" spans="2:4">
+      <c r="B90" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" ht="27" spans="2:4">
+      <c r="B91" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" ht="40.5" spans="2:4">
+      <c r="B92" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" ht="40.5" spans="2:4">
+      <c r="B93" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" ht="27" spans="2:4">
+      <c r="B94" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" ht="40.5" spans="2:4">
+      <c r="B95" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" ht="40.5" spans="2:4">
+      <c r="B96" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" ht="40.5" spans="2:4">
+      <c r="B97" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" ht="27" spans="2:4">
+      <c r="B98" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" ht="40.5" spans="2:4">
+      <c r="B99" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" ht="27" spans="2:4">
+      <c r="B100" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="101" ht="27" spans="2:4">
+      <c r="B101" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" ht="27" spans="2:4">
+      <c r="B102" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" ht="40.5" spans="2:4">
+      <c r="B103" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" ht="67.5" spans="2:4">
+      <c r="B104" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="105" ht="27" spans="2:4">
+      <c r="B105" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" ht="27" spans="2:4">
+      <c r="B106" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" ht="40.5" spans="2:4">
+      <c r="B107" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" ht="27" spans="2:4">
+      <c r="B108" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" ht="40.5" spans="2:4">
+      <c r="B109" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" ht="27" spans="2:4">
+      <c r="B110" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="111" ht="27" spans="2:4">
+      <c r="B111" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" ht="40.5" spans="2:4">
+      <c r="B112" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" ht="40.5" spans="2:4">
+      <c r="B113" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="114" ht="27" spans="2:4">
+      <c r="B114" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" ht="27" spans="2:4">
+      <c r="B115" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="116" ht="40.5" spans="2:4">
+      <c r="B116" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" ht="40.5" spans="2:4">
+      <c r="B117" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="118" ht="67.5" spans="2:4">
+      <c r="B118" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="119" ht="40.5" spans="2:4">
+      <c r="B119" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="120" ht="27" spans="2:4">
+      <c r="B120" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="121" ht="40.5" spans="2:4">
+      <c r="B121" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="122" ht="27" spans="2:4">
+      <c r="B122" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" ht="27" spans="2:4">
+      <c r="B123" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="124" ht="67.5" spans="2:4">
+      <c r="B124" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="125" ht="40.5" spans="2:4">
+      <c r="B125" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="126" ht="27" spans="2:4">
+      <c r="B126" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="127" ht="27" spans="2:4">
+      <c r="B127" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="128" ht="27" spans="2:4">
+      <c r="B128" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="129" ht="40.5" spans="2:4">
+      <c r="B129" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" ht="54" spans="2:4">
+      <c r="B130" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="131" ht="27" spans="2:4">
+      <c r="B131" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" ht="40.5" spans="2:4">
+      <c r="B132" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" ht="27" spans="2:4">
+      <c r="B133" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="134" ht="67.5" spans="2:4">
+      <c r="B134" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="135" ht="54" spans="2:4">
+      <c r="B135" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" ht="27" spans="2:4">
+      <c r="B136" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="137" ht="40.5" spans="2:4">
+      <c r="B137" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="138" ht="27" spans="2:4">
+      <c r="B138" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="139" ht="40.5" spans="2:4">
+      <c r="B139" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="140" ht="40.5" spans="2:4">
+      <c r="B140" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" ht="27" spans="2:4">
+      <c r="B141" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="142" ht="40.5" spans="2:4">
+      <c r="B142" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" ht="27" spans="2:4">
+      <c r="B143" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="144" ht="40.5" spans="2:4">
+      <c r="B144" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="145" ht="40.5" spans="2:4">
+      <c r="B145" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="146" ht="40.5" spans="2:4">
+      <c r="B146" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="147" ht="27" spans="2:4">
+      <c r="B147" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="148" ht="27" spans="2:4">
+      <c r="B148" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="149" ht="27" spans="2:4">
+      <c r="B149" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="150" ht="27" spans="2:4">
+      <c r="B150" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="151" ht="27" spans="2:4">
+      <c r="B151" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="152" ht="54" spans="2:4">
+      <c r="B152" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" ht="40.5" spans="2:4">
+      <c r="B153" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="154" ht="27" spans="2:4">
+      <c r="B154" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="155" ht="27" spans="2:4">
+      <c r="B155" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="156" ht="40.5" spans="2:4">
+      <c r="B156" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2470,6 +5572,86 @@
     <hyperlink ref="C74" r:id="rId146" display="https://www.ncbi.nlm.nih.gov/research/pubtator3/" tooltip="https://www.ncbi.nlm.nih.gov/research/pubtator3/"/>
     <hyperlink ref="B75" r:id="rId147" display="TTSBBC: Triplex target site biomarkers and barcodes in cancer" tooltip="https://doi.org/10.1093/nar/gkae312"/>
     <hyperlink ref="C75" r:id="rId148" display="https://kowalski-labapps.dellmed.utexas.edu/TTSBBC/" tooltip="https://kowalski-labapps.dellmed.utexas.edu/TTSBBC/"/>
+    <hyperlink ref="D76" r:id="rId149" display="https://3dgnome.mini.pw.edu.pl/" tooltip="https://3dgnome.mini.pw.edu.pl/"/>
+    <hyperlink ref="D77" r:id="rId150" display="https://alphacharges.ncbr.muni.cz/" tooltip="https://alphacharges.ncbr.muni.cz/"/>
+    <hyperlink ref="D78" r:id="rId151" display="http://cao.labshare.cn/abalign/" tooltip="http://cao.labshare.cn/abalign/"/>
+    <hyperlink ref="D79" r:id="rId152" display="http://chemyang.ccnu.edu.cn/ccb/server/ACFIS2/" tooltip="http://chemyang.ccnu.edu.cn/ccb/server/ACFIS2/"/>
+    <hyperlink ref="D80" r:id="rId153" display="http://www.allostery.net/AlloReverse/" tooltip="http://www.allostery.net/AlloReverse/"/>
+    <hyperlink ref="D81" r:id="rId154" display="https://www.lbgi.fr/AnnotSV/" tooltip="https://www.lbgi.fr/AnnotSV/"/>
+    <hyperlink ref="D82" r:id="rId155" display="https://antismash.secondarymetabolites.org/" tooltip="https://antismash.secondarymetabolites.org/"/>
+    <hyperlink ref="D83" r:id="rId156" display="https://armadillo.dhvi.duke.edu" tooltip="https://armadillo.dhvi.duke.edu"/>
+    <hyperlink ref="D84" r:id="rId157" display="https://breeze.fimm.fi/v2/" tooltip="https://breeze.fimm.fi/v2/"/>
+    <hyperlink ref="D85" r:id="rId158" display="https://caid.idpcentral.org/submit" tooltip="https://caid.idpcentral.org/submit"/>
+    <hyperlink ref="D86" r:id="rId159" display="https://cave.biodesign.ac.cn/" tooltip="https://cave.biodesign.ac.cn/"/>
+    <hyperlink ref="D87" r:id="rId160" display="https://sandbox.ntp.niehs.nih.gov/chemmaps/" tooltip="https://sandbox.ntp.niehs.nih.gov/chemmaps/"/>
+    <hyperlink ref="D88" r:id="rId161" display="https://github.com/ocroci/ChroKit" tooltip="https://github.com/ocroci/ChroKit"/>
+    <hyperlink ref="D89" r:id="rId162" display="http://www.microbiome-bigdata.com/CRISPRimmunity" tooltip="http://www.microbiome-bigdata.com/CRISPRimmunity"/>
+    <hyperlink ref="D90" r:id="rId163" display="https://cupp.info/" tooltip="https://cupp.info/"/>
+    <hyperlink ref="D91" r:id="rId164" display="https://bcb.unl.edu/dbCAN2/" tooltip="https://bcb.unl.edu/dbCAN2/"/>
+    <hyperlink ref="D92" r:id="rId165" display="https://biosig.lab.uq.edu.au/ddmut" tooltip="https://biosig.lab.uq.edu.au/ddmut"/>
+    <hyperlink ref="D93" r:id="rId166" display="https://mdl.shsmu.edu.cn/DeepAlloDriver" tooltip="https://mdl.shsmu.edu.cn/DeepAlloDriver"/>
+    <hyperlink ref="D94" r:id="rId167" display="https://deepneo.net" tooltip="https://deepneo.net"/>
+    <hyperlink ref="D95" r:id="rId168" display="http://biomine.cs.vcu.edu/servers/DEPICTER2/" tooltip="http://biomine.cs.vcu.edu/servers/DEPICTER2/"/>
+    <hyperlink ref="D96" r:id="rId169" display="http://www.microrna.gr/microt_webserver/" tooltip="http://www.microrna.gr/microt_webserver/"/>
+    <hyperlink ref="D97" r:id="rId170" display="http://www.microrna.gr/miRPathv4" tooltip="http://www.microrna.gr/miRPathv4"/>
+    <hyperlink ref="D98" r:id="rId171" display="http://www.e-rna.org" tooltip="http://www.e-rna.org"/>
+    <hyperlink ref="D99" r:id="rId172" display="https://maayanlab.cloud/enrichr-kg" tooltip="https://maayanlab.cloud/enrichr-kg"/>
+    <hyperlink ref="D100" r:id="rId173" display="http://scflux.org/" tooltip="http://scflux.org/"/>
+    <hyperlink ref="D101" r:id="rId174" display="https://funarts.ziemertlab.com" tooltip="https://funarts.ziemertlab.com"/>
+    <hyperlink ref="D102" r:id="rId175" display="https://fuzpred.bio.unipd.it" tooltip="https://fuzpred.bio.unipd.it"/>
+    <hyperlink ref="D103" r:id="rId176" display="https://biit.cs.ut.ee/gprofiler" tooltip="https://biit.cs.ut.ee/gprofiler"/>
+    <hyperlink ref="D105" r:id="rId177" display="https://gcv.legumeinfo.org/" tooltip="https://gcv.legumeinfo.org/"/>
+    <hyperlink ref="D106" r:id="rId178" display="https://genomefltr.tau.ac.il/" tooltip="https://genomefltr.tau.ac.il/"/>
+    <hyperlink ref="D107" r:id="rId179" display="https://gepi.coling.uni-jena.de/" tooltip="https://gepi.coling.uni-jena.de/"/>
+    <hyperlink ref="D108" r:id="rId180" display="https://gps.biocuckoo.cn" tooltip="https://gps.biocuckoo.cn"/>
+    <hyperlink ref="D109" r:id="rId181" display="https://gs-smd.biomodellab.eu/" tooltip="https://gs-smd.biomodellab.eu/"/>
+    <hyperlink ref="D110" r:id="rId182" display="https://haplogrep.i-med.ac.at" tooltip="https://haplogrep.i-med.ac.at"/>
+    <hyperlink ref="D111" r:id="rId183" display="https://archeogenomics.eu/" tooltip="https://archeogenomics.eu/"/>
+    <hyperlink ref="D112" r:id="rId184" display="https://www.reading.ac.uk/bioinf/" tooltip="https://www.reading.ac.uk/bioinf/"/>
+    <hyperlink ref="D113" r:id="rId185" display="https://evryrna.ibisc.univ-evry.fr/" tooltip="https://evryrna.ibisc.univ-evry.fr/"/>
+    <hyperlink ref="D114" r:id="rId186" display="https://kvfinder-web.cnpem.br" tooltip="https://kvfinder-web.cnpem.br"/>
+    <hyperlink ref="D115" r:id="rId187" display="https://server.lightdock.org/" tooltip="https://server.lightdock.org/"/>
+    <hyperlink ref="D116" r:id="rId188" display="http://csbg.cnb.csic.es/mbrole3" tooltip="http://csbg.cnb.csic.es/mbrole3"/>
+    <hyperlink ref="D117" r:id="rId189" display="http://www.microbiomeanalyst.ca/" tooltip="http://www.microbiomeanalyst.ca/"/>
+    <hyperlink ref="D118" r:id="rId190" display="https://ccb-compute2.cs.uni-saarland.de/mieaa" tooltip="https://ccb-compute2.cs.uni-saarland.de/mieaa"/>
+    <hyperlink ref="D119" r:id="rId191" display="https://molstarvolseg.ncbr.muni.cz/" tooltip="https://molstarvolseg.ncbr.muni.cz/"/>
+    <hyperlink ref="D120" r:id="rId192" display="https://mpoxradar.net" tooltip="https://mpoxradar.net"/>
+    <hyperlink ref="D121" r:id="rId193" display="https://iomics.ugent.be/ms2pip/" tooltip="https://iomics.ugent.be/ms2pip/"/>
+    <hyperlink ref="D122" r:id="rId194" display="https://www.mu-loc.org/" tooltip="https://www.mu-loc.org/"/>
+    <hyperlink ref="D123" r:id="rId195" display="https://mygeneset.info/" tooltip="https://mygeneset.info/"/>
+    <hyperlink ref="D124" r:id="rId196" display="https://kowalski-labapps.dellmed.utexas.edu/NBBC/" tooltip="https://kowalski-labapps.dellmed.utexas.edu/NBBC/"/>
+    <hyperlink ref="D125" r:id="rId197" display="https://ncovdock2.schanglab.org.cn" tooltip="https://ncovdock2.schanglab.org.cn"/>
+    <hyperlink ref="D126" r:id="rId198" display="https://arn.ugr.es/normSeq" tooltip="https://arn.ugr.es/normSeq"/>
+    <hyperlink ref="D127" r:id="rId199" display="http://ontarget.cmmt.ubc.ca/" tooltip="http://ontarget.cmmt.ubc.ca/"/>
+    <hyperlink ref="D128" r:id="rId200" display="http://www.openxgr.com" tooltip="http://www.openxgr.com"/>
+    <hyperlink ref="D129" r:id="rId201" display="https://orthovenn3.bioinfotoolkits.net" tooltip="https://orthovenn3.bioinfotoolkits.net"/>
+    <hyperlink ref="D130" r:id="rId202" display="http://www.subtiwiki.uni-goettingen.de/v4/paeViewerDemo" tooltip="http://www.subtiwiki.uni-goettingen.de/v4/paeViewerDemo"/>
+    <hyperlink ref="D131" r:id="rId203" display="https://www.pandrugs.org/" tooltip="https://www.pandrugs.org/"/>
+    <hyperlink ref="D132" r:id="rId204" display="https://www.flyrnai.org/tools/pangea/" tooltip="https://www.flyrnai.org/tools/pangea/"/>
+    <hyperlink ref="D133" r:id="rId205" display="https://passer.smu.edu" tooltip="https://passer.smu.edu"/>
+    <hyperlink ref="D134" r:id="rId206" display="http://bioserv.rpbs.univ-paris-diderot.fr/services/PEP-FOLD4" tooltip="http://bioserv.rpbs.univ-paris-diderot.fr/services/PEP-FOLD4"/>
+    <hyperlink ref="D135" r:id="rId207" display="https://pest-alert-tool-prod.azurewebsites.net/" tooltip="https://pest-alert-tool-prod.azurewebsites.net/"/>
+    <hyperlink ref="D136" r:id="rId208" display="https://phastest.ca" tooltip="https://phastest.ca"/>
+    <hyperlink ref="D137" r:id="rId209" display="http://snps.biofold.org/phd-snpg" tooltip="http://snps.biofold.org/phd-snpg"/>
+    <hyperlink ref="D138" r:id="rId210" display="https://plasmapper.ca" tooltip="https://plasmapper.ca"/>
+    <hyperlink ref="D139" r:id="rId211" display="http://prismnetweb.zhanglab.net/" tooltip="http://prismnetweb.zhanglab.net/"/>
+    <hyperlink ref="D140" r:id="rId212" display="https://netbio.bgu.ac.il/ProAct/" tooltip="https://netbio.bgu.ac.il/ProAct/"/>
+    <hyperlink ref="D141" r:id="rId213" display="https://proksee.ca" tooltip="https://proksee.ca"/>
+    <hyperlink ref="D142" r:id="rId214" display="https://cge.food.dtu.dk/services/ResFinderFG/" tooltip="https://cge.food.dtu.dk/services/ResFinderFG/"/>
+    <hyperlink ref="D143" r:id="rId215" display="https://rnacanvas.app" tooltip="https://rnacanvas.app"/>
+    <hyperlink ref="D144" r:id="rId216" display="https://idrblab.org/rnaincoder/" tooltip="https://idrblab.org/rnaincoder/"/>
+    <hyperlink ref="D145" r:id="rId217" display="http://licpathway.net/SEanalysis" tooltip="http://licpathway.net/SEanalysis"/>
+    <hyperlink ref="D146" r:id="rId218" display="http://www.badd-cao.net/seppa-mab/" tooltip="http://www.badd-cao.net/seppa-mab/"/>
+    <hyperlink ref="D147" r:id="rId219" display="https://sfkit.org" tooltip="https://sfkit.org"/>
+    <hyperlink ref="D148" r:id="rId220" display="http://sh2db.ttk.hu/" tooltip="http://sh2db.ttk.hu/"/>
+    <hyperlink ref="D149" r:id="rId221" display="https://www.biosino.org/smdb" tooltip="https://www.biosino.org/smdb"/>
+    <hyperlink ref="D150" r:id="rId222" display="https://spatial.rhesusbase.com" tooltip="https://spatial.rhesusbase.com"/>
+    <hyperlink ref="D151" r:id="rId223" display="https://tcrmodel.ibbr.umd.edu." tooltip="https://tcrmodel.ibbr.umd.edu"/>
+    <hyperlink ref="D152" r:id="rId224" display="https://transcrispr.igcz.poznan.pl/transcrispr/" tooltip="https://transcrispr.igcz.poznan.pl/transcrispr/"/>
+    <hyperlink ref="D153" r:id="rId225" display="https://www.chiplot.online/tvbot.html" tooltip="https://www.chiplot.online/tvbot.html"/>
+    <hyperlink ref="D154" r:id="rId226" display="https://www.visse.cloud/" tooltip="https://www.visse.cloud/"/>
+    <hyperlink ref="D155" r:id="rId227" display="http://cab.cc.spbu.ru/quast/" tooltip="http://cab.cc.spbu.ru/quast/"/>
+    <hyperlink ref="D156" r:id="rId228" display="https://webtetrado.cs.put.poznan.pl/" tooltip="https://webtetrado.cs.put.poznan.pl/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
